--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Users" state="visible" r:id="rId4"/>
   </sheets>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -50,15 +53,41 @@
   </si>
   <si>
     <t>hash123</t>
+  </si>
+  <si>
+    <t>Test22@gmail.com</t>
+  </si>
+  <si>
+    <t>$2b$10$3C90fl7EYtMAevLCoQTddeucIjdVx2WBo4YS4HfcupTvThQBWjahO</t>
+  </si>
+  <si>
+    <t>Test22</t>
+  </si>
+  <si>
+    <t>Test3@gmail.com</t>
+  </si>
+  <si>
+    <t>$2b$10$UEi/bW8WHQHDmPdZWHr3EeVDXLOEzuGM/FjMfNl71orACzvFioLvK</t>
+  </si>
+  <si>
+    <t>Test3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="10"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
@@ -85,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,8 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -468,7 +503,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -498,7 +533,44 @@
         <v>45963.82582258101</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45996.83460552084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45996.856601747684</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E228D3DC-0EC1-DD4B-A2B8-5929CFB75EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Users" state="visible" r:id="rId4"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -31,67 +32,44 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
-    <t>testhash</t>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>$2b$10$2eitSKhyJFA.BJYmgUkz8un0N5KX7U7JF0wb/IlBAkvugAWy7OGgG</t>
   </si>
   <si>
     <t>testuser</t>
   </si>
   <si>
-    <t>sanjanaplayz@gmail.com</t>
-  </si>
-  <si>
-    <t>$2b$10$gpzxARpo.GwevBo/ERK41OdmDEWiY3BVkQjUuJJITys59MkAmh8zi</t>
-  </si>
-  <si>
-    <t>Sanjanalol</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
-  </si>
-  <si>
-    <t>hash123</t>
-  </si>
-  <si>
-    <t>Test22@gmail.com</t>
-  </si>
-  <si>
-    <t>$2b$10$3C90fl7EYtMAevLCoQTddeucIjdVx2WBo4YS4HfcupTvThQBWjahO</t>
-  </si>
-  <si>
-    <t>Test22</t>
-  </si>
-  <si>
-    <t>Test3@gmail.com</t>
-  </si>
-  <si>
-    <t>$2b$10$UEi/bW8WHQHDmPdZWHr3EeVDXLOEzuGM/FjMfNl71orACzvFioLvK</t>
-  </si>
-  <si>
-    <t>Test3</t>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>$2b$10$jQbw0KhcDELathahjo/nzOvZRwIZvXLQCn6Tgn19EN2ln83ybghsC</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>$2b$10$nS2qkMGkTSADbFDEP6AQkuEpZVBf4VZ4HLGB4g/A4QYygoL19rZ8e</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color theme="10"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,10 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,16 +433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,14 +473,14 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>45963.80950083333</v>
+        <v>45998.781270277774</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -513,10 +490,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>45963.81035140046</v>
+        <v>45998.781803784717</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -527,51 +504,14 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
-        <v>45963.82582258101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45996.83460552084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>45996.856601747684</v>
+        <v>45998.784592118056</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>